--- a/BARU/2023/08 AGUSTUS/KELUAR 08.xlsx
+++ b/BARU/2023/08 AGUSTUS/KELUAR 08.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="324">
   <si>
     <t>Column1</t>
   </si>
@@ -971,6 +971,39 @@
   </si>
   <si>
     <t>ISI CUTTER 18 MM KENKO L-150 (BESAR)</t>
+  </si>
+  <si>
+    <t>SIDU</t>
+  </si>
+  <si>
+    <t>MONG SANTOSA ANDRESTA</t>
+  </si>
+  <si>
+    <t>SALATIGA</t>
+  </si>
+  <si>
+    <t>( SIDU )</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>OPJK48W</t>
+  </si>
+  <si>
+    <t>OPJK55W</t>
+  </si>
+  <si>
+    <t>PWJK24WCP101</t>
+  </si>
+  <si>
+    <t>CRAYON / OIL PASTEL JOYKO OP-48S PP CASE SEA WORLD</t>
+  </si>
+  <si>
+    <t>CRAYON / OIL PASTEL JOYKO OP-55S PP CASE SEA WORLD</t>
+  </si>
+  <si>
+    <t>PENSIL WARNA JOYKO CP-101 (24W PANJANG)</t>
   </si>
 </sst>
 </file>
@@ -2162,38 +2195,80 @@
     <xf numFmtId="10" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2261,87 +2336,1051 @@
     <xf numFmtId="166" fontId="24" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="101">
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2436,49 +3475,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2502,33 +3514,21 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2552,37 +3552,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2598,137 +3567,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2779,68 +3617,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2864,33 +3640,21 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2914,37 +3678,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2952,7 +3685,6 @@
         <vertAlign val="baseline"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2960,36 +3692,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3029,121 +3731,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3167,37 +3758,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3213,37 +3773,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3267,36 +3796,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3311,37 +3810,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3387,70 +3855,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3473,36 +3881,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3521,36 +3899,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3562,81 +3910,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3663,33 +3936,21 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3709,36 +3970,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3784,71 +4015,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3898,68 +4068,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -4000,72 +4108,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -4133,16 +4179,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalDown="0">
         <left/>
         <top style="double">
@@ -4153,7 +4189,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="totalRow" dxfId="99"/>
+      <tableStyleElement type="totalRow" dxfId="100"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5017,13 +5053,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45169.658090740741" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="266">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45171.556260185185" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="266">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="32">
     <cacheField name="//" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="127" count="49">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="131" count="50">
         <s v=""/>
         <n v="4"/>
         <n v="6"/>
@@ -5058,6 +5094,7 @@
         <n v="109"/>
         <n v="125"/>
         <n v="127"/>
+        <n v="131"/>
         <n v="96" u="1"/>
         <n v="18" u="1"/>
         <n v="86" u="1"/>
@@ -5076,13 +5113,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="h_No. Invoice :" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23080001" maxValue="23080033"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23080001" maxValue="23080034"/>
     </cacheField>
     <cacheField name="Tgl Invoice :" numFmtId="164">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-08-02T00:00:00" maxDate="2147-04-02T00:00:00"/>
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2023-08-02T00:00:00" maxDate="2023-09-01T00:00:00"/>
     </cacheField>
     <cacheField name="H_TGL" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="45169"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="31"/>
     </cacheField>
     <cacheField name="h_Kode Sales :_1" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5139,7 +5176,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="h_id" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="127"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="131"/>
     </cacheField>
     <cacheField name="h_jumlahbarang" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
@@ -9398,8 +9435,8 @@
   <r>
     <x v="33"/>
     <n v="23080033"/>
-    <d v="2147-04-01T00:00:00"/>
-    <n v="45169"/>
+    <d v="2023-08-31T00:00:00"/>
+    <n v="31"/>
     <s v="KO"/>
     <s v="3615"/>
     <s v="ANUGERAH"/>
@@ -9532,38 +9569,38 @@
     <s v=""/>
   </r>
   <r>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <x v="34"/>
+    <n v="23080034"/>
+    <d v="2023-08-31T00:00:00"/>
+    <n v="31"/>
+    <s v="KO"/>
+    <s v="1591"/>
+    <s v="LANCAR"/>
+    <s v="AM 23080034"/>
+    <s v="KO 1591"/>
+    <s v="CV LANCAR JAYA SENTOSA MALANG"/>
+    <n v="48"/>
+    <s v="PCS"/>
+    <n v="2"/>
+    <s v="OPJK48W"/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-48S PP CASE SEA WORLD"/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-48S PP CASE SEA WORLD"/>
+    <n v="58900"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="2473800"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="131"/>
+    <n v="3"/>
+    <n v="2827200"/>
+    <n v="353400"/>
+    <n v="0"/>
+    <n v="353400"/>
+    <n v="2473800"/>
+    <n v="10122000"/>
+    <m/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-48S PP CASE SEA WORLDPCS58900"/>
   </r>
   <r>
     <x v="0"/>
@@ -9576,28 +9613,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="48"/>
+    <s v="PCS"/>
+    <n v="2"/>
+    <s v="OPJK55W"/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-55S PP CASE SEA WORLD"/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-55S PP CASE SEA WORLD"/>
+    <n v="66900"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="2809800"/>
+    <m/>
+    <m/>
+    <n v="131"/>
+    <n v="3"/>
+    <n v="3211200"/>
+    <n v="401400"/>
+    <n v="0"/>
+    <n v="401400"/>
+    <n v="2809800"/>
+    <s v=""/>
+    <m/>
+    <s v="CRAYON / OIL PASTEL JOYKO OP-55S PP CASE SEA WORLDPCS66900"/>
   </r>
   <r>
     <x v="0"/>
@@ -9610,28 +9647,28 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <s v=""/>
+    <n v="288"/>
+    <s v="PCS"/>
+    <n v="4"/>
+    <s v="PWJK24WCP101"/>
+    <s v="PENSIL WARNA JOYKO CP-101 (24W PANJANG)"/>
+    <s v="PENSIL WARNA JOYKO CP-101 (24W PANJANG)"/>
+    <n v="19200"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="4838400"/>
+    <m/>
+    <m/>
+    <n v="131"/>
+    <n v="3"/>
+    <n v="5529600"/>
+    <n v="691200"/>
+    <n v="0"/>
+    <n v="691200"/>
+    <n v="4838400"/>
+    <s v=""/>
+    <m/>
+    <s v="PENSIL WARNA JOYKO CP-101 (24W PANJANG)PCS19200"/>
   </r>
   <r>
     <x v="0"/>
@@ -14227,11 +14264,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:A39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:A40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="50">
+      <items count="51">
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -14239,26 +14276,26 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="37"/>
+        <item m="1" x="38"/>
+        <item m="1" x="40"/>
+        <item x="8"/>
+        <item m="1" x="46"/>
+        <item x="9"/>
+        <item m="1" x="47"/>
+        <item x="10"/>
+        <item m="1" x="49"/>
+        <item x="11"/>
         <item m="1" x="39"/>
-        <item x="8"/>
+        <item x="12"/>
+        <item m="1" x="41"/>
+        <item x="13"/>
+        <item m="1" x="42"/>
+        <item x="14"/>
+        <item m="1" x="43"/>
+        <item x="15"/>
+        <item m="1" x="44"/>
+        <item x="16"/>
         <item m="1" x="45"/>
-        <item x="9"/>
-        <item m="1" x="46"/>
-        <item x="10"/>
-        <item m="1" x="48"/>
-        <item x="11"/>
-        <item m="1" x="38"/>
-        <item x="12"/>
-        <item m="1" x="40"/>
-        <item x="13"/>
-        <item m="1" x="41"/>
-        <item x="14"/>
-        <item m="1" x="42"/>
-        <item x="15"/>
-        <item m="1" x="43"/>
-        <item x="16"/>
-        <item m="1" x="44"/>
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
@@ -14268,19 +14305,20 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
-        <item m="1" x="36"/>
-        <item m="1" x="47"/>
+        <item m="1" x="37"/>
+        <item m="1" x="48"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
-        <item m="1" x="34"/>
+        <item m="1" x="35"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
+        <item x="34"/>
         <item x="0"/>
-        <item n=" " m="1" x="35"/>
+        <item n=" " m="1" x="36"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14319,7 +14357,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="35">
+  <rowItems count="36">
     <i>
       <x/>
     </i>
@@ -14422,6 +14460,9 @@
     <i>
       <x v="47"/>
     </i>
+    <i>
+      <x v="48"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -14430,7 +14471,7 @@
     <i/>
   </colItems>
   <formats count="1">
-    <format dxfId="28">
+    <format dxfId="64">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -14444,73 +14485,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF269" totalsRowCount="1" headerRowDxfId="97" dataDxfId="96" totalsRowDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AF269" totalsRowCount="1" headerRowDxfId="99" dataDxfId="98" totalsRowDxfId="97">
   <autoFilter ref="A2:AF268"/>
   <tableColumns count="32">
-    <tableColumn id="16" name="//" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="16" name="//" dataDxfId="96" totalsRowDxfId="32">
       <calculatedColumnFormula>IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="92" totalsRowDxfId="91">
+    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="95" totalsRowDxfId="31">
       <calculatedColumnFormula>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="90" totalsRowDxfId="89">
+    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="94" totalsRowDxfId="30">
       <calculatedColumnFormula>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="H_TGL" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="20" name="h_toko" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="1" name="No. Invoice :" dataDxfId="80" totalsRowDxfId="79">
+    <tableColumn id="32" name="H_TGL" dataDxfId="93" totalsRowDxfId="29"/>
+    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="92" totalsRowDxfId="28"/>
+    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="91" totalsRowDxfId="27"/>
+    <tableColumn id="20" name="h_toko" dataDxfId="90" totalsRowDxfId="26"/>
+    <tableColumn id="1" name="No. Invoice :" dataDxfId="89" totalsRowDxfId="25">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Kode Sales :" dataDxfId="78" totalsRowDxfId="77">
+    <tableColumn id="3" name="Kode Sales :" dataDxfId="88" totalsRowDxfId="24">
       <calculatedColumnFormula>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Toko" dataDxfId="76" totalsRowDxfId="75">
+    <tableColumn id="4" name="Toko" dataDxfId="87" totalsRowDxfId="23">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Qty" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="6" name="Unit" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="7" name="C" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="8" name="h_Item Description" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="10" name="Column1" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="5" name="Qty" dataDxfId="86" totalsRowDxfId="22"/>
+    <tableColumn id="6" name="Unit" dataDxfId="85" totalsRowDxfId="21"/>
+    <tableColumn id="7" name="C" dataDxfId="84" totalsRowDxfId="20"/>
+    <tableColumn id="8" name="h_Item Description" dataDxfId="83" totalsRowDxfId="19"/>
+    <tableColumn id="10" name="Column1" dataDxfId="82" totalsRowDxfId="18">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Item Description" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="11" name="Unit Price" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="12" name="Disc 1" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="13" name="Disc 2" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="23" name="Amount" dataDxfId="56" totalsRowDxfId="55">
+    <tableColumn id="9" name="Item Description" dataDxfId="81" totalsRowDxfId="17"/>
+    <tableColumn id="11" name="Unit Price" dataDxfId="80" totalsRowDxfId="16"/>
+    <tableColumn id="12" name="Disc 1" dataDxfId="79" totalsRowDxfId="15"/>
+    <tableColumn id="13" name="Disc 2" dataDxfId="78" totalsRowDxfId="14"/>
+    <tableColumn id="23" name="Amount" dataDxfId="77" totalsRowDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[h_hargasetelahdiskon]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota :" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="15" name="edited :" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="21" name="h_id" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="14" name="pembuat nota :" dataDxfId="76" totalsRowDxfId="12"/>
+    <tableColumn id="15" name="edited :" dataDxfId="75" totalsRowDxfId="11"/>
+    <tableColumn id="21" name="h_id" dataDxfId="74" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="73" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="72" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="h_disc 1" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="31" name="h_disc 1" dataDxfId="71" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="h_disc 2" dataDxfId="42" totalsRowDxfId="41">
+    <tableColumn id="30" name="h_disc 2" dataDxfId="70" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="h_diskon" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="25" name="h_diskon" dataDxfId="69" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="68" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Total Invoice" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="27" name="Total Invoice" dataDxfId="67" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="KETERANGAN" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="29" name="H_A1" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="28" name="KETERANGAN" dataDxfId="66" totalsRowDxfId="2"/>
+    <tableColumn id="29" name="H_A1" dataDxfId="65" totalsRowDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14519,74 +14560,74 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="D4:P58" totalsRowCount="1" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="D4:P58" totalsRowCount="1" headerRowDxfId="63">
   <autoFilter ref="D4:P57"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="26">
+    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="62">
       <calculatedColumnFormula>IF(ROW()-(COUNTBLANK($D$1:$D$3)+1)&lt;=jNota,A5,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="No. Invoice :" dataDxfId="25">
+    <tableColumn id="2" name="No. Invoice :" dataDxfId="61">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="24">
+    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="60">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Kode Sales :" dataDxfId="23">
+    <tableColumn id="4" name="Kode Sales :" dataDxfId="59">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Toko" dataDxfId="22">
+    <tableColumn id="5" name="Toko" dataDxfId="58">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>pajak[[#This Row],[Sub Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota" dataDxfId="11">
+    <tableColumn id="14" name="pembuat nota" dataDxfId="47">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="edited" dataDxfId="10">
+    <tableColumn id="15" name="edited" dataDxfId="46">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="4" dataDxfId="9"/>
+    <tableColumn id="12" name="4" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="R4:X57" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="R4:X57" totalsRowShown="0" headerRowDxfId="44">
   <autoFilter ref="R4:X57"/>
   <tableColumns count="7">
-    <tableColumn id="8" name="AM" dataDxfId="7">
+    <tableColumn id="8" name="AM" dataDxfId="43">
       <calculatedColumnFormula>Table4[[#Headers],[AM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="---" dataDxfId="6">
+    <tableColumn id="2" name="---" dataDxfId="42">
       <calculatedColumnFormula>S$3+ROW()-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="No. Invoice :" dataDxfId="5">
+    <tableColumn id="7" name="No. Invoice :" dataDxfId="41">
       <calculatedColumnFormula>IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kode Sales :" dataDxfId="4">
+    <tableColumn id="9" name="Kode Sales :" dataDxfId="40">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="3">
+    <tableColumn id="6" name="Tgl Invoice :" dataDxfId="39">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total Invoice" dataDxfId="2">
+    <tableColumn id="4" name="Total Invoice" dataDxfId="38">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="pembuat nota" dataDxfId="1">
+    <tableColumn id="3" name="pembuat nota" dataDxfId="37">
       <calculatedColumnFormula>IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14595,8 +14636,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:E21" totalsRowShown="0">
-  <autoFilter ref="A2:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:E22" totalsRowShown="0">
+  <autoFilter ref="A2:E22"/>
   <sortState ref="A3:E19">
     <sortCondition ref="B2:B19"/>
   </sortState>
@@ -14605,7 +14646,7 @@
     <tableColumn id="2" name="b"/>
     <tableColumn id="3" name="c"/>
     <tableColumn id="4" name="d"/>
-    <tableColumn id="5" name="e" dataDxfId="0">
+    <tableColumn id="5" name="e" dataDxfId="36">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[b]],IF(Table2[[#This Row],[c]]=""," ",CONCATENATE(" ",Table2[[#This Row],[c]]," ")),Table2[[#This Row],[d]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14903,8 +14944,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF269"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P131" sqref="P131:P133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26306,76 +26347,110 @@
       </c>
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A131" s="287" t="str">
+      <c r="A131" s="287">
         <f ca="1">IF(Table1[[#This Row],[No. Invoice :]]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B131" s="287" t="str">
+        <v>131</v>
+      </c>
+      <c r="B131" s="287">
         <f ca="1">IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(INDIRECT("B$2:B"&amp;ROW()-1)))</f>
-        <v/>
-      </c>
-      <c r="C131" s="281" t="str">
+        <v>23080034</v>
+      </c>
+      <c r="C131" s="281">
         <f>IF(Table1[[#This Row],[H_TGL]]="","",Table1[[#This Row],[H_TGL]]+C$1-1)</f>
-        <v/>
+        <v>45169</v>
+      </c>
+      <c r="D131" s="292">
+        <v>31</v>
+      </c>
+      <c r="E131" s="280" t="s">
+        <v>162</v>
+      </c>
+      <c r="F131" s="282" t="s">
+        <v>317</v>
+      </c>
+      <c r="G131" s="280" t="s">
+        <v>94</v>
       </c>
       <c r="H131" s="287" t="str">
         <f ca="1">IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23080034</v>
       </c>
       <c r="I131" s="288" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 1591</v>
       </c>
       <c r="J131" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV LANCAR JAYA SENTOSA MALANG</v>
+      </c>
+      <c r="K131" s="280">
+        <v>48</v>
+      </c>
+      <c r="L131" s="280" t="s">
+        <v>136</v>
+      </c>
+      <c r="M131" s="280">
+        <v>2</v>
+      </c>
+      <c r="N131" s="280" t="s">
+        <v>318</v>
       </c>
       <c r="O131" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q131" s="283"/>
-      <c r="R131" s="284"/>
-      <c r="T131" s="283" t="str">
+        <v>CRAYON / OIL PASTEL JOYKO OP-48S PP CASE SEA WORLD</v>
+      </c>
+      <c r="P131" s="280" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q131" s="283">
+        <v>58900</v>
+      </c>
+      <c r="R131" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T131" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W131" s="287" t="str">
+        <v>2473800</v>
+      </c>
+      <c r="U131" s="283" t="s">
+        <v>133</v>
+      </c>
+      <c r="W131" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X131" s="287" t="str">
+        <v>131</v>
+      </c>
+      <c r="X131" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y131" s="283" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y131" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z131" s="283" t="str">
+        <v>2827200</v>
+      </c>
+      <c r="Z131" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA131" s="283" t="str">
+        <v>353400</v>
+      </c>
+      <c r="AA131" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB131" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB131" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC131" s="283" t="str">
+        <v>353400</v>
+      </c>
+      <c r="AC131" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AD131" s="283" t="str">
+        <v>2473800</v>
+      </c>
+      <c r="AD131" s="283">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>10122000</v>
       </c>
       <c r="AE131" s="283"/>
       <c r="AF131" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CRAYON / OIL PASTEL JOYKO OP-48S PP CASE SEA WORLDPCS58900</v>
       </c>
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.25">
@@ -26403,43 +26478,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K132" s="280">
+        <v>48</v>
+      </c>
+      <c r="L132" s="280" t="s">
+        <v>136</v>
+      </c>
+      <c r="M132" s="280">
+        <v>2</v>
+      </c>
+      <c r="N132" s="280" t="s">
+        <v>319</v>
+      </c>
       <c r="O132" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q132" s="283"/>
-      <c r="R132" s="284"/>
-      <c r="T132" s="283" t="str">
+        <v>CRAYON / OIL PASTEL JOYKO OP-55S PP CASE SEA WORLD</v>
+      </c>
+      <c r="P132" s="280" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q132" s="283">
+        <v>66900</v>
+      </c>
+      <c r="R132" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T132" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W132" s="287" t="str">
+        <v>2809800</v>
+      </c>
+      <c r="W132" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X132" s="287" t="str">
+        <v>131</v>
+      </c>
+      <c r="X132" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y132" s="283" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y132" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z132" s="283" t="str">
+        <v>3211200</v>
+      </c>
+      <c r="Z132" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA132" s="283" t="str">
+        <v>401400</v>
+      </c>
+      <c r="AA132" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB132" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB132" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC132" s="283" t="str">
+        <v>401400</v>
+      </c>
+      <c r="AC132" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2809800</v>
       </c>
       <c r="AD132" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -26448,7 +26542,7 @@
       <c r="AE132" s="283"/>
       <c r="AF132" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CRAYON / OIL PASTEL JOYKO OP-55S PP CASE SEA WORLDPCS66900</v>
       </c>
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.25">
@@ -26476,43 +26570,62 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="K133" s="280">
+        <v>288</v>
+      </c>
+      <c r="L133" s="280" t="s">
+        <v>136</v>
+      </c>
+      <c r="M133" s="280">
+        <v>4</v>
+      </c>
+      <c r="N133" s="280" t="s">
+        <v>320</v>
+      </c>
       <c r="O133" s="287" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="Q133" s="283"/>
-      <c r="R133" s="284"/>
-      <c r="T133" s="283" t="str">
+        <v>PENSIL WARNA JOYKO CP-101 (24W PANJANG)</v>
+      </c>
+      <c r="P133" s="280" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q133" s="283">
+        <v>19200</v>
+      </c>
+      <c r="R133" s="284">
+        <v>0.125</v>
+      </c>
+      <c r="T133" s="283">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="W133" s="287" t="str">
+        <v>4838400</v>
+      </c>
+      <c r="W133" s="287">
         <f ca="1">IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",INDIRECT(ADDRESS(ROW()-1,COLUMN())),Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="X133" s="287" t="str">
+        <v>131</v>
+      </c>
+      <c r="X133" s="287">
         <f ca="1">IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="Y133" s="283" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y133" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Z133" s="283" t="str">
+        <v>5529600</v>
+      </c>
+      <c r="Z133" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 1]]="",0,Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]]))</f>
-        <v/>
-      </c>
-      <c r="AA133" s="283" t="str">
+        <v>691200</v>
+      </c>
+      <c r="AA133" s="283">
         <f>IF(Table1[[#This Row],[h_hargasebelumdiskon]]="","",IF(Table1[[#This Row],[Disc 2]]="",0,(Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_disc 1]])*Table1[[#This Row],[Disc 2]]))</f>
-        <v/>
-      </c>
-      <c r="AB133" s="283" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB133" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_disc 1]]+Table1[[#This Row],[h_disc 2]])</f>
-        <v/>
-      </c>
-      <c r="AC133" s="283" t="str">
+        <v>691200</v>
+      </c>
+      <c r="AC133" s="283">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>4838400</v>
       </c>
       <c r="AD133" s="283" t="str">
         <f ca="1">IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -26521,7 +26634,7 @@
       <c r="AE133" s="283"/>
       <c r="AF133" s="283" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PENSIL WARNA JOYKO CP-101 (24W PANJANG)PCS19200</v>
       </c>
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.25">
@@ -36414,7 +36527,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P54">
-    <cfRule type="duplicateValues" dxfId="98" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36429,8 +36542,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36499,7 +36612,7 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E3">
         <f ca="1">COUNT(Table1[//])</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" s="294" t="str">
         <f>"["&amp;H2&amp;".xlsx]Invoice"</f>
@@ -36611,7 +36724,7 @@
       </c>
       <c r="AA4" s="278">
         <f ca="1">SUM(pajak[Total Invoice])</f>
-        <v>158348204.5</v>
+        <v>168470204.5</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -36700,7 +36813,7 @@
       </c>
       <c r="AA5" s="87">
         <f ca="1">SUM(pajak[PPN 11%])</f>
-        <v>15692164.409909911</v>
+        <v>16695245.490990993</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -36786,7 +36899,7 @@
       </c>
       <c r="AA6" s="87">
         <f ca="1">(AA4/1.11)*11%</f>
-        <v>15692164.409909908</v>
+        <v>16695245.490990991</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -39334,50 +39447,52 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="291"/>
-      <c r="D38" s="85" t="str">
+      <c r="A38" s="291">
+        <v>131</v>
+      </c>
+      <c r="D38" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>131</v>
       </c>
       <c r="E38" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F38" s="88" t="str">
+        <v>AM 23080034</v>
+      </c>
+      <c r="F38" s="88">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>45169</v>
       </c>
       <c r="G38" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 1591</v>
       </c>
       <c r="H38" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I38" s="87" t="str">
+        <v>CV LANCAR JAYA SENTOSA MALANG</v>
+      </c>
+      <c r="I38" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J38" s="87" t="str">
+        <v>11568000</v>
+      </c>
+      <c r="J38" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K38" s="87" t="str">
+        <v>1446000</v>
+      </c>
+      <c r="K38" s="87">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L38" s="87" t="str">
+        <v>10122000</v>
+      </c>
+      <c r="L38" s="87">
         <f ca="1">IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M38" s="87" t="str">
+        <v>1003081.0810810811</v>
+      </c>
+      <c r="M38" s="87">
         <f ca="1">pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>10122000</v>
       </c>
       <c r="N38" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O38" s="85" t="str">
         <f ca="1">IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
@@ -39392,9 +39507,9 @@
         <f t="shared" si="3"/>
         <v>23080034</v>
       </c>
-      <c r="T38" s="184" t="b">
+      <c r="T38" s="184" t="e">
         <f ca="1">IF(Table4[[#This Row],[AM]]&amp;" "&amp;Table4[[#This Row],[---]]=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),MATCH(Table4[[#This Row],[---]],INDIRECT($3:$3),0))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
       <c r="U38" s="184" t="e">
         <f ca="1">IF((INDEX(INDIRECT($3:$3),Table4[[#This Row],[No. Invoice :]]+$2:$2))=INDIRECT("pajak[@["&amp;Table4[#Headers]&amp;"]]"),1)</f>
@@ -39414,9 +39529,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="291" t="s">
-        <v>55</v>
-      </c>
+      <c r="A39" s="291"/>
       <c r="D39" s="85" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -39496,6 +39609,9 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="291" t="s">
+        <v>55</v>
+      </c>
       <c r="D40" s="85" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -40924,23 +41040,23 @@
       <c r="F58"/>
       <c r="I58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total])</f>
-        <v>180189400</v>
+        <v>191757400</v>
       </c>
       <c r="J58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Diskon])</f>
-        <v>21841195.5</v>
+        <v>23287195.5</v>
       </c>
       <c r="K58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Sub Total])</f>
-        <v>158348204.5</v>
+        <v>168470204.5</v>
       </c>
       <c r="L58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[PPN 11%])</f>
-        <v>15692164.409909911</v>
+        <v>16695245.490990993</v>
       </c>
       <c r="M58" s="87">
         <f ca="1">SUBTOTAL(109,pajak[Total Invoice])</f>
-        <v>158348204.5</v>
+        <v>168470204.5</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -40948,10 +41064,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G59:G1048576 G3:G57">
-    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:X2 T4:X1048576">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40969,8 +41085,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -40990,7 +41106,7 @@
     <row r="1" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">IF(K1="",MAX(Table1[//]),INDEX(Table1[//],MATCH(K1,Table1[//],0)))</f>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -41004,7 +41120,7 @@
       </c>
       <c r="E1" t="str">
         <f ca="1">INDEX(Table1[h_toko],newestIdRow-offset)</f>
-        <v>ANUGERAH</v>
+        <v>LANCAR</v>
       </c>
       <c r="F1" t="s">
         <v>46</v>
@@ -41013,10 +41129,10 @@
         <f ca="1">INDEX(Table1[h_jumlahbarang],newestIdRow-offset)</f>
         <v>3</v>
       </c>
-      <c r="I1" s="305" t="s">
+      <c r="I1" s="352" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="305"/>
+      <c r="J1" s="352"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="7.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -41040,18 +41156,18 @@
       </c>
       <c r="E3" s="8">
         <f ca="1">INDEX(Table1[h_No. Invoice :],newestIdRow-offset)</f>
-        <v>23080033</v>
+        <v>23080034</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="312" t="str">
+      <c r="H3" s="359" t="str">
         <f ca="1">INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
-        <v>CV PELITA JAYA</v>
-      </c>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="313"/>
+        <v>CV LANCAR JAYA SENTOSA</v>
+      </c>
+      <c r="I3" s="359"/>
+      <c r="J3" s="359"/>
+      <c r="K3" s="360"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41060,14 +41176,14 @@
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="316" t="s">
+      <c r="F4" s="330" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="314"/>
-      <c r="J4" s="314"/>
-      <c r="K4" s="315"/>
+      <c r="H4" s="361"/>
+      <c r="I4" s="361"/>
+      <c r="J4" s="361"/>
+      <c r="K4" s="362"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41076,20 +41192,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="317">
+      <c r="D5" s="331">
         <f ca="1">INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
         <v>45169</v>
       </c>
-      <c r="E5" s="318"/>
-      <c r="F5" s="316"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="330"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="319" t="str">
+      <c r="H5" s="333" t="str">
         <f ca="1">IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
-        <v>(ANUGERAH SEJAHTERA)</v>
-      </c>
-      <c r="I5" s="319"/>
-      <c r="J5" s="319"/>
-      <c r="K5" s="320"/>
+        <v/>
+      </c>
+      <c r="I5" s="333"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="334"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41098,15 +41214,15 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="316"/>
+      <c r="F6" s="330"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="321" t="str">
+      <c r="H6" s="335" t="str">
         <f ca="1">INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
-        <v>PURWOKERTO</v>
-      </c>
-      <c r="I6" s="321"/>
-      <c r="J6" s="321"/>
-      <c r="K6" s="322"/>
+        <v>MALANG</v>
+      </c>
+      <c r="I6" s="335"/>
+      <c r="J6" s="335"/>
+      <c r="K6" s="336"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -41117,15 +41233,15 @@
       <c r="C7" s="7"/>
       <c r="D7" s="19" t="str">
         <f ca="1">INDEX(Table1[Kode Sales :],newestIdRow-offset)</f>
-        <v>KO 3615</v>
+        <v>KO 1591</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="323"/>
-      <c r="I7" s="323"/>
-      <c r="J7" s="323"/>
-      <c r="K7" s="324"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="337"/>
+      <c r="J7" s="337"/>
+      <c r="K7" s="338"/>
       <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -41188,29 +41304,29 @@
       </c>
       <c r="B11" s="45">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A11-1))</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C11" s="45" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",UPPER((INDEX(Table1[Unit],newestIdRow-offset+A11-1))))</f>
-        <v>BOX</v>
+        <v>PCS</v>
       </c>
       <c r="D11" s="46">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A11-1)="","",INDEX(Table1[C],newestIdRow-offset+A11-1)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="47" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A11-1))</f>
-        <v>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc</v>
+        <v>CRAYON / OIL PASTEL JOYKO OP-48S PP CASE SEA WORLD</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
       <c r="H11" s="50">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A11-1))</f>
-        <v>72000</v>
+        <v>58900</v>
       </c>
       <c r="I11" s="51">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A11-1)))</f>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J11" s="51" t="str">
         <f ca="1">IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)))</f>
@@ -41218,7 +41334,7 @@
       </c>
       <c r="K11" s="52">
         <f ca="1">IF(A11&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A11-1))</f>
-        <v>2242080</v>
+        <v>2473800</v>
       </c>
       <c r="L11" s="35"/>
     </row>
@@ -41232,7 +41348,7 @@
       </c>
       <c r="C12" s="45" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",UPPER((INDEX(Table1[Unit],newestIdRow-offset+A12-1))))</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="D12" s="46">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A12-1)="","",INDEX(Table1[C],newestIdRow-offset+A12-1)))</f>
@@ -41240,17 +41356,17 @@
       </c>
       <c r="E12" s="47" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A12-1))</f>
-        <v>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)</v>
+        <v>CRAYON / OIL PASTEL JOYKO OP-55S PP CASE SEA WORLD</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="49"/>
       <c r="H12" s="50">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A12-1))</f>
-        <v>80400</v>
+        <v>66900</v>
       </c>
       <c r="I12" s="51">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A12-1)))</f>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J12" s="51" t="str">
         <f ca="1">IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)))</f>
@@ -41258,7 +41374,7 @@
       </c>
       <c r="K12" s="52">
         <f ca="1">IF(A12&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A12-1))</f>
-        <v>3338208</v>
+        <v>2809800</v>
       </c>
       <c r="L12" s="35"/>
     </row>
@@ -41268,11 +41384,11 @@
       </c>
       <c r="B13" s="45">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A13-1))</f>
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="C13" s="45" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",UPPER((INDEX(Table1[Unit],newestIdRow-offset+A13-1))))</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="D13" s="46">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A13-1)="","",INDEX(Table1[C],newestIdRow-offset+A13-1)))</f>
@@ -41280,17 +41396,17 @@
       </c>
       <c r="E13" s="47" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A13-1))</f>
-        <v>ISI CUTTER 18 MM KENKO L-150 (BESAR)</v>
+        <v>PENSIL WARNA JOYKO CP-101 (24W PANJANG)</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="49"/>
       <c r="H13" s="50">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A13-1))</f>
-        <v>64800</v>
+        <v>19200</v>
       </c>
       <c r="I13" s="51">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 1],newestIdRow-offset+A13-1)="","",INDEX(Table1[Disc 1],newestIdRow-offset+A13-1)))</f>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J13" s="51" t="str">
         <f ca="1">IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A13-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A13-1)))</f>
@@ -41298,7 +41414,7 @@
       </c>
       <c r="K13" s="52">
         <f ca="1">IF(A13&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A13-1))</f>
-        <v>13452480</v>
+        <v>4838400</v>
       </c>
       <c r="L13" s="35"/>
     </row>
@@ -41846,8 +41962,8 @@
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="64"/>
-      <c r="J28" s="311"/>
-      <c r="K28" s="311"/>
+      <c r="J28" s="358"/>
+      <c r="K28" s="358"/>
     </row>
     <row r="29" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
@@ -41857,11 +41973,11 @@
       <c r="I29" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="308">
+      <c r="J29" s="355">
         <f ca="1">INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>19032768</v>
-      </c>
-      <c r="K29" s="309"/>
+        <v>10122000</v>
+      </c>
+      <c r="K29" s="356"/>
       <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41870,8 +41986,8 @@
       <c r="C30" s="65"/>
       <c r="D30" s="24"/>
       <c r="I30" s="67"/>
-      <c r="J30" s="310"/>
-      <c r="K30" s="310"/>
+      <c r="J30" s="357"/>
+      <c r="K30" s="357"/>
     </row>
     <row r="31" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -41894,8 +42010,8 @@
       <c r="C32" s="65"/>
       <c r="D32" s="24"/>
       <c r="I32" s="67"/>
-      <c r="J32" s="311"/>
-      <c r="K32" s="311"/>
+      <c r="J32" s="358"/>
+      <c r="K32" s="358"/>
     </row>
     <row r="33" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
@@ -41910,11 +42026,11 @@
       <c r="I33" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="308">
+      <c r="J33" s="355">
         <f ca="1">INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>1886130.1621621621</v>
-      </c>
-      <c r="K33" s="309"/>
+        <v>1003081.0810810811</v>
+      </c>
+      <c r="K33" s="356"/>
       <c r="L33" s="72"/>
     </row>
     <row r="34" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -41923,8 +42039,8 @@
       <c r="C34" s="65"/>
       <c r="D34" s="24"/>
       <c r="I34" s="67"/>
-      <c r="J34" s="311"/>
-      <c r="K34" s="311"/>
+      <c r="J34" s="358"/>
+      <c r="K34" s="358"/>
     </row>
     <row r="35" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
@@ -41938,7 +42054,7 @@
       <c r="J35" s="75"/>
       <c r="K35" s="76">
         <f ca="1">INDEX(pajak[Total Invoice],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>19032768</v>
+        <v>10122000</v>
       </c>
       <c r="L35" s="72"/>
     </row>
@@ -41965,11 +42081,11 @@
       <c r="I37" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="306" t="str">
+      <c r="J37" s="353" t="str">
         <f ca="1">INDEX(pajak[pembuat nota],MATCH(newestIdRow,pajak[//],0))</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K37" s="307"/>
+      <c r="K37" s="354"/>
     </row>
     <row r="38" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="77"/>
@@ -41979,11 +42095,11 @@
       <c r="I38" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="306" t="str">
+      <c r="J38" s="353" t="str">
         <f ca="1">INDEX(pajak[edited],MATCH(newestIdRow,pajak[//],0))</f>
         <v/>
       </c>
-      <c r="K38" s="307"/>
+      <c r="K38" s="354"/>
       <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42022,19 +42138,19 @@
       </c>
       <c r="E41" s="194">
         <f ca="1">E3</f>
-        <v>23080033</v>
+        <v>23080034</v>
       </c>
       <c r="F41" s="195"/>
       <c r="G41" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="325" t="str">
+      <c r="H41" s="339" t="str">
         <f ca="1">H3</f>
-        <v>CV PELITA JAYA</v>
-      </c>
-      <c r="I41" s="325"/>
-      <c r="J41" s="325"/>
-      <c r="K41" s="326"/>
+        <v>CV LANCAR JAYA SENTOSA</v>
+      </c>
+      <c r="I41" s="339"/>
+      <c r="J41" s="339"/>
+      <c r="K41" s="340"/>
       <c r="L41" s="197"/>
     </row>
     <row r="42" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42043,14 +42159,14 @@
       <c r="C42" s="199"/>
       <c r="D42" s="200"/>
       <c r="E42" s="201"/>
-      <c r="F42" s="329" t="s">
+      <c r="F42" s="343" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="202"/>
-      <c r="H42" s="327"/>
-      <c r="I42" s="327"/>
-      <c r="J42" s="327"/>
-      <c r="K42" s="328"/>
+      <c r="H42" s="341"/>
+      <c r="I42" s="341"/>
+      <c r="J42" s="341"/>
+      <c r="K42" s="342"/>
       <c r="L42" s="197"/>
     </row>
     <row r="43" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42059,20 +42175,20 @@
         <v>2</v>
       </c>
       <c r="C43" s="192"/>
-      <c r="D43" s="330">
+      <c r="D43" s="344">
         <f ca="1">D5</f>
         <v>45169</v>
       </c>
-      <c r="E43" s="331"/>
-      <c r="F43" s="329"/>
+      <c r="E43" s="345"/>
+      <c r="F43" s="343"/>
       <c r="G43" s="203"/>
-      <c r="H43" s="332" t="str">
+      <c r="H43" s="346" t="str">
         <f ca="1">H5</f>
-        <v>(ANUGERAH SEJAHTERA)</v>
-      </c>
-      <c r="I43" s="332"/>
-      <c r="J43" s="332"/>
-      <c r="K43" s="333"/>
+        <v/>
+      </c>
+      <c r="I43" s="346"/>
+      <c r="J43" s="346"/>
+      <c r="K43" s="347"/>
       <c r="L43" s="204"/>
     </row>
     <row r="44" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42081,15 +42197,15 @@
       <c r="C44" s="199"/>
       <c r="D44" s="200"/>
       <c r="E44" s="201"/>
-      <c r="F44" s="329"/>
+      <c r="F44" s="343"/>
       <c r="G44" s="203"/>
-      <c r="H44" s="334" t="str">
+      <c r="H44" s="348" t="str">
         <f ca="1">H6</f>
-        <v>PURWOKERTO</v>
-      </c>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="335"/>
+        <v>MALANG</v>
+      </c>
+      <c r="I44" s="348"/>
+      <c r="J44" s="348"/>
+      <c r="K44" s="349"/>
       <c r="L44" s="205"/>
     </row>
     <row r="45" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -42100,15 +42216,15 @@
       <c r="C45" s="192"/>
       <c r="D45" s="206" t="str">
         <f ca="1">D7</f>
-        <v>KO 3615</v>
+        <v>KO 1591</v>
       </c>
       <c r="E45" s="194"/>
       <c r="F45" s="207"/>
       <c r="G45" s="208"/>
-      <c r="H45" s="336"/>
-      <c r="I45" s="336"/>
-      <c r="J45" s="336"/>
-      <c r="K45" s="337"/>
+      <c r="H45" s="350"/>
+      <c r="I45" s="350"/>
+      <c r="J45" s="350"/>
+      <c r="K45" s="351"/>
       <c r="L45" s="205"/>
     </row>
     <row r="46" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -42175,29 +42291,29 @@
       </c>
       <c r="B49" s="233">
         <f t="shared" ref="B49:E64" ca="1" si="0">B11</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C49" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>BOX</v>
+        <v>PCS</v>
       </c>
       <c r="D49" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc</v>
+        <v>CRAYON / OIL PASTEL JOYKO OP-48S PP CASE SEA WORLD</v>
       </c>
       <c r="F49" s="237"/>
       <c r="G49" s="238"/>
       <c r="H49" s="239">
         <f t="shared" ref="H49:K64" ca="1" si="1">H11</f>
-        <v>72000</v>
+        <v>58900</v>
       </c>
       <c r="I49" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J49" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -42205,7 +42321,7 @@
       </c>
       <c r="K49" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>2242080</v>
+        <v>2473800</v>
       </c>
       <c r="L49" s="223"/>
     </row>
@@ -42219,7 +42335,7 @@
       </c>
       <c r="C50" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="D50" s="235">
         <f t="shared" ca="1" si="0"/>
@@ -42227,17 +42343,17 @@
       </c>
       <c r="E50" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)</v>
+        <v>CRAYON / OIL PASTEL JOYKO OP-55S PP CASE SEA WORLD</v>
       </c>
       <c r="F50" s="237"/>
       <c r="G50" s="238"/>
       <c r="H50" s="239">
         <f t="shared" ca="1" si="1"/>
-        <v>80400</v>
+        <v>66900</v>
       </c>
       <c r="I50" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J50" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -42245,7 +42361,7 @@
       </c>
       <c r="K50" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>3338208</v>
+        <v>2809800</v>
       </c>
       <c r="L50" s="223"/>
     </row>
@@ -42255,11 +42371,11 @@
       </c>
       <c r="B51" s="233">
         <f t="shared" ca="1" si="0"/>
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="C51" s="234" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="D51" s="235">
         <f t="shared" ca="1" si="0"/>
@@ -42267,17 +42383,17 @@
       </c>
       <c r="E51" s="236" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ISI CUTTER 18 MM KENKO L-150 (BESAR)</v>
+        <v>PENSIL WARNA JOYKO CP-101 (24W PANJANG)</v>
       </c>
       <c r="F51" s="237"/>
       <c r="G51" s="238"/>
       <c r="H51" s="239">
         <f t="shared" ca="1" si="1"/>
-        <v>64800</v>
+        <v>19200</v>
       </c>
       <c r="I51" s="240">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J51" s="240" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -42285,7 +42401,7 @@
       </c>
       <c r="K51" s="241">
         <f t="shared" ca="1" si="1"/>
-        <v>13452480</v>
+        <v>4838400</v>
       </c>
       <c r="L51" s="223"/>
     </row>
@@ -42833,8 +42949,8 @@
       <c r="G66" s="252"/>
       <c r="H66" s="252"/>
       <c r="I66" s="253"/>
-      <c r="J66" s="338"/>
-      <c r="K66" s="338"/>
+      <c r="J66" s="319"/>
+      <c r="K66" s="319"/>
       <c r="L66" s="215"/>
     </row>
     <row r="67" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42849,11 +42965,11 @@
       <c r="I67" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="339">
+      <c r="J67" s="327">
         <f ca="1">J29</f>
-        <v>19032768</v>
-      </c>
-      <c r="K67" s="340"/>
+        <v>10122000</v>
+      </c>
+      <c r="K67" s="328"/>
       <c r="L67" s="223"/>
     </row>
     <row r="68" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42866,8 +42982,8 @@
       <c r="G68" s="212"/>
       <c r="H68" s="212"/>
       <c r="I68" s="256"/>
-      <c r="J68" s="341"/>
-      <c r="K68" s="341"/>
+      <c r="J68" s="329"/>
+      <c r="K68" s="329"/>
       <c r="L68" s="215"/>
     </row>
     <row r="69" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42902,8 +43018,8 @@
       <c r="G70" s="212"/>
       <c r="H70" s="212"/>
       <c r="I70" s="256"/>
-      <c r="J70" s="338"/>
-      <c r="K70" s="338"/>
+      <c r="J70" s="319"/>
+      <c r="K70" s="319"/>
       <c r="L70" s="215"/>
     </row>
     <row r="71" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42922,11 +43038,11 @@
       <c r="I71" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="339">
+      <c r="J71" s="327">
         <f ca="1">J33</f>
-        <v>1886130.1621621621</v>
-      </c>
-      <c r="K71" s="340"/>
+        <v>1003081.0810810811</v>
+      </c>
+      <c r="K71" s="328"/>
       <c r="L71" s="261"/>
     </row>
     <row r="72" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42939,8 +43055,8 @@
       <c r="G72" s="212"/>
       <c r="H72" s="212"/>
       <c r="I72" s="256"/>
-      <c r="J72" s="338"/>
-      <c r="K72" s="338"/>
+      <c r="J72" s="319"/>
+      <c r="K72" s="319"/>
       <c r="L72" s="215"/>
     </row>
     <row r="73" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42958,7 +43074,7 @@
       <c r="J73" s="264"/>
       <c r="K73" s="265">
         <f ca="1">K35</f>
-        <v>19032768</v>
+        <v>10122000</v>
       </c>
       <c r="L73" s="261"/>
     </row>
@@ -42990,11 +43106,11 @@
       <c r="I75" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="342" t="str">
+      <c r="J75" s="320" t="str">
         <f ca="1">J37</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K75" s="343"/>
+      <c r="K75" s="321"/>
       <c r="L75" s="215"/>
     </row>
     <row r="76" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -43009,11 +43125,11 @@
       <c r="I76" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="342" t="str">
+      <c r="J76" s="320" t="str">
         <f ca="1">J38</f>
         <v/>
       </c>
-      <c r="K76" s="343"/>
+      <c r="K76" s="321"/>
       <c r="L76" s="269"/>
     </row>
     <row r="77" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -43056,19 +43172,19 @@
       </c>
       <c r="E79" s="99">
         <f ca="1">E41</f>
-        <v>23080033</v>
+        <v>23080034</v>
       </c>
       <c r="F79" s="100"/>
       <c r="G79" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="344" t="str">
+      <c r="H79" s="322" t="str">
         <f ca="1">H41</f>
-        <v>CV PELITA JAYA</v>
-      </c>
-      <c r="I79" s="344"/>
-      <c r="J79" s="344"/>
-      <c r="K79" s="345"/>
+        <v>CV LANCAR JAYA SENTOSA</v>
+      </c>
+      <c r="I79" s="322"/>
+      <c r="J79" s="322"/>
+      <c r="K79" s="323"/>
       <c r="L79" s="102"/>
     </row>
     <row r="80" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43077,14 +43193,14 @@
       <c r="C80" s="104"/>
       <c r="D80" s="105"/>
       <c r="E80" s="106"/>
-      <c r="F80" s="348" t="s">
+      <c r="F80" s="326" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="107"/>
-      <c r="H80" s="346"/>
-      <c r="I80" s="346"/>
-      <c r="J80" s="346"/>
-      <c r="K80" s="347"/>
+      <c r="H80" s="324"/>
+      <c r="I80" s="324"/>
+      <c r="J80" s="324"/>
+      <c r="K80" s="325"/>
       <c r="L80" s="102"/>
     </row>
     <row r="81" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43093,20 +43209,20 @@
         <v>2</v>
       </c>
       <c r="C81" s="97"/>
-      <c r="D81" s="349">
+      <c r="D81" s="311">
         <f ca="1">D43</f>
         <v>45169</v>
       </c>
-      <c r="E81" s="350"/>
-      <c r="F81" s="348"/>
+      <c r="E81" s="312"/>
+      <c r="F81" s="326"/>
       <c r="G81" s="108"/>
-      <c r="H81" s="351" t="str">
+      <c r="H81" s="313" t="str">
         <f ca="1">H43</f>
-        <v>(ANUGERAH SEJAHTERA)</v>
-      </c>
-      <c r="I81" s="351"/>
-      <c r="J81" s="351"/>
-      <c r="K81" s="352"/>
+        <v/>
+      </c>
+      <c r="I81" s="313"/>
+      <c r="J81" s="313"/>
+      <c r="K81" s="314"/>
       <c r="L81" s="109"/>
     </row>
     <row r="82" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43115,15 +43231,15 @@
       <c r="C82" s="104"/>
       <c r="D82" s="105"/>
       <c r="E82" s="106"/>
-      <c r="F82" s="348"/>
+      <c r="F82" s="326"/>
       <c r="G82" s="108"/>
-      <c r="H82" s="353" t="str">
+      <c r="H82" s="315" t="str">
         <f ca="1">H44</f>
-        <v>PURWOKERTO</v>
-      </c>
-      <c r="I82" s="353"/>
-      <c r="J82" s="353"/>
-      <c r="K82" s="354"/>
+        <v>MALANG</v>
+      </c>
+      <c r="I82" s="315"/>
+      <c r="J82" s="315"/>
+      <c r="K82" s="316"/>
       <c r="L82" s="110"/>
     </row>
     <row r="83" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -43134,15 +43250,15 @@
       <c r="C83" s="97"/>
       <c r="D83" s="111" t="str">
         <f ca="1">D45</f>
-        <v>KO 3615</v>
+        <v>KO 1591</v>
       </c>
       <c r="E83" s="99"/>
       <c r="F83" s="112"/>
       <c r="G83" s="113"/>
-      <c r="H83" s="355"/>
-      <c r="I83" s="355"/>
-      <c r="J83" s="355"/>
-      <c r="K83" s="356"/>
+      <c r="H83" s="317"/>
+      <c r="I83" s="317"/>
+      <c r="J83" s="317"/>
+      <c r="K83" s="318"/>
       <c r="L83" s="110"/>
     </row>
     <row r="84" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -43209,29 +43325,29 @@
       </c>
       <c r="B87" s="138">
         <f t="shared" ref="B87:E102" ca="1" si="2">B49</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C87" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BOX</v>
+        <v>PCS</v>
       </c>
       <c r="D87" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc</v>
+        <v>CRAYON / OIL PASTEL JOYKO OP-48S PP CASE SEA WORLD</v>
       </c>
       <c r="F87" s="142"/>
       <c r="G87" s="143"/>
       <c r="H87" s="144">
         <f t="shared" ref="H87:K102" ca="1" si="3">H49</f>
-        <v>72000</v>
+        <v>58900</v>
       </c>
       <c r="I87" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J87" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -43239,7 +43355,7 @@
       </c>
       <c r="K87" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>2242080</v>
+        <v>2473800</v>
       </c>
       <c r="L87" s="128"/>
     </row>
@@ -43253,7 +43369,7 @@
       </c>
       <c r="C88" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="D88" s="140">
         <f t="shared" ca="1" si="2"/>
@@ -43261,17 +43377,17 @@
       </c>
       <c r="E88" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PENSIL WARNA JOYKO CP-S12 MINI (PENDEK)</v>
+        <v>CRAYON / OIL PASTEL JOYKO OP-55S PP CASE SEA WORLD</v>
       </c>
       <c r="F88" s="142"/>
       <c r="G88" s="143"/>
       <c r="H88" s="144">
         <f t="shared" ca="1" si="3"/>
-        <v>80400</v>
+        <v>66900</v>
       </c>
       <c r="I88" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J88" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -43279,7 +43395,7 @@
       </c>
       <c r="K88" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>3338208</v>
+        <v>2809800</v>
       </c>
       <c r="L88" s="128"/>
     </row>
@@ -43289,11 +43405,11 @@
       </c>
       <c r="B89" s="138">
         <f t="shared" ca="1" si="2"/>
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="C89" s="139" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="D89" s="140">
         <f t="shared" ca="1" si="2"/>
@@ -43301,17 +43417,17 @@
       </c>
       <c r="E89" s="141" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ISI CUTTER 18 MM KENKO L-150 (BESAR)</v>
+        <v>PENSIL WARNA JOYKO CP-101 (24W PANJANG)</v>
       </c>
       <c r="F89" s="142"/>
       <c r="G89" s="143"/>
       <c r="H89" s="144">
         <f t="shared" ca="1" si="3"/>
-        <v>64800</v>
+        <v>19200</v>
       </c>
       <c r="I89" s="145">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J89" s="145" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -43319,7 +43435,7 @@
       </c>
       <c r="K89" s="146">
         <f t="shared" ca="1" si="3"/>
-        <v>13452480</v>
+        <v>4838400</v>
       </c>
       <c r="L89" s="128"/>
     </row>
@@ -43867,8 +43983,8 @@
       <c r="G104" s="157"/>
       <c r="H104" s="157"/>
       <c r="I104" s="158"/>
-      <c r="J104" s="357"/>
-      <c r="K104" s="357"/>
+      <c r="J104" s="308"/>
+      <c r="K104" s="308"/>
       <c r="L104" s="120"/>
     </row>
     <row r="105" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43883,11 +43999,11 @@
       <c r="I105" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="J105" s="358">
+      <c r="J105" s="309">
         <f ca="1">J67</f>
-        <v>19032768</v>
-      </c>
-      <c r="K105" s="359"/>
+        <v>10122000</v>
+      </c>
+      <c r="K105" s="310"/>
       <c r="L105" s="128"/>
     </row>
     <row r="106" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -43900,8 +44016,8 @@
       <c r="G106" s="117"/>
       <c r="H106" s="117"/>
       <c r="I106" s="161"/>
-      <c r="J106" s="362"/>
-      <c r="K106" s="362"/>
+      <c r="J106" s="307"/>
+      <c r="K106" s="307"/>
       <c r="L106" s="120"/>
     </row>
     <row r="107" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43936,8 +44052,8 @@
       <c r="G108" s="117"/>
       <c r="H108" s="117"/>
       <c r="I108" s="161"/>
-      <c r="J108" s="357"/>
-      <c r="K108" s="357"/>
+      <c r="J108" s="308"/>
+      <c r="K108" s="308"/>
       <c r="L108" s="120"/>
     </row>
     <row r="109" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43956,11 +44072,11 @@
       <c r="I109" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="J109" s="358">
+      <c r="J109" s="309">
         <f ca="1">J71</f>
-        <v>1886130.1621621621</v>
-      </c>
-      <c r="K109" s="359"/>
+        <v>1003081.0810810811</v>
+      </c>
+      <c r="K109" s="310"/>
       <c r="L109" s="166"/>
     </row>
     <row r="110" spans="1:12" s="9" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -43973,8 +44089,8 @@
       <c r="G110" s="117"/>
       <c r="H110" s="117"/>
       <c r="I110" s="161"/>
-      <c r="J110" s="357"/>
-      <c r="K110" s="357"/>
+      <c r="J110" s="308"/>
+      <c r="K110" s="308"/>
       <c r="L110" s="120"/>
     </row>
     <row r="111" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43992,7 +44108,7 @@
       <c r="J111" s="169"/>
       <c r="K111" s="170">
         <f ca="1">K73</f>
-        <v>19032768</v>
+        <v>10122000</v>
       </c>
       <c r="L111" s="166"/>
     </row>
@@ -44024,11 +44140,11 @@
       <c r="I113" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="360" t="str">
+      <c r="J113" s="305" t="str">
         <f ca="1">J75</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K113" s="361"/>
+      <c r="K113" s="306"/>
       <c r="L113" s="120"/>
     </row>
     <row r="114" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44043,11 +44159,11 @@
       <c r="I114" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="360" t="str">
+      <c r="J114" s="305" t="str">
         <f ca="1">J76</f>
         <v/>
       </c>
-      <c r="K114" s="361"/>
+      <c r="K114" s="306"/>
       <c r="L114" s="174"/>
     </row>
     <row r="115" spans="1:12" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44066,36 +44182,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K83"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="H79:K80"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="H41:K42"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H44:K45"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J29:K29"/>
@@ -44106,6 +44192,36 @@
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="H3:K4"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H41:K42"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K45"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="H79:K80"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K83"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J113:K113"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="6.59375" header="0" footer="0"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44116,10 +44232,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44460,6 +44576,24 @@
         <v>GUNAWAN HARTONO KUSUMA ( NIKI SAE ) TULUNG AGUNG</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22" s="85" t="str">
+        <f>CONCATENATE(Table2[[#This Row],[b]],IF(Table2[[#This Row],[c]]=""," ",CONCATENATE(" ",Table2[[#This Row],[c]]," ")),Table2[[#This Row],[d]])</f>
+        <v>MONG SANTOSA ANDRESTA ( SIDU ) SALATIGA</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
